--- a/data/trans_dic/IP7_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP7_R-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>5,32%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 8,62</t>
+          <t>0,0; 16,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,27</t>
+          <t>0; 6,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,87</t>
+          <t>0; 6,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,81</t>
+          <t>0,0; 21,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,58</t>
+          <t>0; 6,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,09</t>
+          <t>0,0; 24,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,13</t>
+          <t>0,0; 24,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 8,97</t>
+          <t>0,0; 20,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,91</t>
+          <t>0,0; 8,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,36</t>
+          <t>0,0; 13,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,31</t>
+          <t>0,0; 12,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,81</t>
+          <t>0,0; 15,06</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,92%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 5,03</t>
+          <t>3,56; 8,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 6,42</t>
+          <t>0,59; 3,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,43</t>
+          <t>0,67; 3,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 6,55</t>
+          <t>0,91; 3,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,54</t>
+          <t>0,96; 4,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 4,63</t>
+          <t>0,33; 3,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,9</t>
+          <t>0,86; 4,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,77</t>
+          <t>1,66; 8,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,07</t>
+          <t>2,67; 5,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,88</t>
+          <t>0,62; 2,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,37</t>
+          <t>1,08; 3,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,14</t>
+          <t>1,61; 4,81</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>2,02%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,36</t>
+          <t>0,86; 4,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>1,86; 6,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>1,52; 6,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,0</t>
+          <t>0,43; 4,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>0,45; 3,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,37</t>
+          <t>1,43; 5,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,78</t>
+          <t>0,73; 4,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,92</t>
+          <t>0,92; 5,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,8</t>
+          <t>0,91; 3,54</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,07</t>
+          <t>2,16; 5,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,24</t>
+          <t>1,46; 4,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,06</t>
+          <t>0,9; 3,89</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>2,41%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,91</t>
+          <t>1,28; 5,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,86; 6,78</t>
+          <t>1,77; 6,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,1</t>
+          <t>0,35; 3,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,15</t>
+          <t>1,64; 6,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 3,97</t>
+          <t>0,0; 2,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 5,99</t>
+          <t>1,05; 4,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,7</t>
+          <t>0,28; 2,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,66</t>
+          <t>0,4; 3,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,54</t>
+          <t>0,95; 3,07</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,16; 5,28</t>
+          <t>1,86; 4,88</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,33</t>
+          <t>0,51; 2,37</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 3,89</t>
+          <t>1,25; 4,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP7_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP7_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,36</t>
+          <t>0,0; 16,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,37</t>
+          <t>0,0; 23,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,78</t>
+          <t>0,0; 25,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,8</t>
+          <t>0,0; 8,77</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,07</t>
+          <t>0,0; 12,88</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,24</t>
+          <t>0,0; 11,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 5,46</t>
+          <t>0,94; 5,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,21</t>
+          <t>0,49; 4,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 6,23</t>
+          <t>0,55; 6,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,76</t>
+          <t>0,6; 8,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 6,54</t>
+          <t>1,11; 6,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,33</t>
+          <t>0,57; 5,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,65</t>
+          <t>0,62; 5,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,86</t>
+          <t>0,0; 6,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,62</t>
+          <t>1,34; 4,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,89</t>
+          <t>0,58; 3,61</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,94</t>
+          <t>1,11; 4,77</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,57</t>
+          <t>0,84; 5,26</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,56; 8,62</t>
+          <t>3,24; 8,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,27</t>
+          <t>0,58; 3,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,87</t>
+          <t>0,7; 3,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,81</t>
+          <t>0,96; 4,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,58</t>
+          <t>0,98; 4,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,09</t>
+          <t>0,33; 3,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,13</t>
+          <t>0,84; 4,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 8,97</t>
+          <t>1,78; 9,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,91</t>
+          <t>2,64; 5,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,36</t>
+          <t>0,65; 2,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,31</t>
+          <t>1,12; 3,34</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,81</t>
+          <t>1,65; 5,26</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,91</t>
+          <t>0,86; 4,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,86; 6,78</t>
+          <t>1,76; 6,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,1</t>
+          <t>1,45; 6,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,15</t>
+          <t>0,41; 3,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 3,97</t>
+          <t>0,46; 4,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,43; 5,99</t>
+          <t>1,53; 6,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,7</t>
+          <t>0,75; 4,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,66</t>
+          <t>1,0; 5,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,54</t>
+          <t>1,0; 3,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,16; 5,28</t>
+          <t>2,1; 5,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,33</t>
+          <t>1,47; 4,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 3,89</t>
+          <t>0,96; 3,82</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 5,03</t>
+          <t>1,28; 5,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,77; 6,42</t>
+          <t>1,8; 6,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,43</t>
+          <t>0,34; 3,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 6,55</t>
+          <t>1,62; 6,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,54</t>
+          <t>0,0; 2,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 4,63</t>
+          <t>1,0; 4,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,9</t>
+          <t>0,28; 3,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,77</t>
+          <t>0,4; 3,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,07</t>
+          <t>0,95; 3,03</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,88</t>
+          <t>1,77; 4,54</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,37</t>
+          <t>0,49; 2,42</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,14</t>
+          <t>1,26; 4,15</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,57; 4,9</t>
+          <t>2,43; 4,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,67; 3,56</t>
+          <t>1,72; 3,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,12</t>
+          <t>1,21; 3,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,47</t>
+          <t>1,6; 3,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,74</t>
+          <t>1,05; 2,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,49</t>
+          <t>1,54; 3,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,97</t>
+          <t>1,23; 2,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,27</t>
+          <t>1,78; 4,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,4</t>
+          <t>2,03; 3,4</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,85; 3,16</t>
+          <t>1,8; 3,2</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,62</t>
+          <t>1,44; 2,76</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,42</t>
+          <t>1,84; 3,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP7_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP7_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,94</t>
+          <t>0,0; 21,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,0</t>
+          <t>0,0; 20,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,44 +749,44 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,83</t>
+          <t>0,0; 27,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,66</t>
+          <t>0,0; 29,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,92</t>
+          <t>0,0; 21,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,77</t>
+          <t>0,0; 7,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,88</t>
+          <t>0,0; 12,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,95</t>
+          <t>0,0; 11,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,06</t>
+          <t>1,4; 14,5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 5,56</t>
+          <t>1,0; 5,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,14</t>
+          <t>0,49; 4,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 6,17</t>
+          <t>0,61; 7,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 8,29</t>
+          <t>0,65; 8,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 6,25</t>
+          <t>1,11; 6,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 5,31</t>
+          <t>0,57; 5,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,72</t>
+          <t>0,54; 5,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,61</t>
+          <t>0,0; 6,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,82</t>
+          <t>1,31; 4,75</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,61</t>
+          <t>0,66; 3,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 4,77</t>
+          <t>1,14; 4,84</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,26</t>
+          <t>0,87; 5,14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,24; 8,3</t>
+          <t>3,49; 8,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,25</t>
+          <t>0,58; 3,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,97</t>
+          <t>0,66; 3,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,24</t>
+          <t>0,92; 4,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,26</t>
+          <t>0,97; 4,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,0</t>
+          <t>0,32; 2,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,13</t>
+          <t>0,81; 4,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 9,04</t>
+          <t>1,87; 9,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 5,82</t>
+          <t>2,73; 5,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,53</t>
+          <t>0,73; 2,62</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,34</t>
+          <t>1,1; 3,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 5,26</t>
+          <t>1,69; 4,97</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,88</t>
+          <t>0,86; 4,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 6,96</t>
+          <t>1,89; 6,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 6,09</t>
+          <t>1,5; 6,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,73</t>
+          <t>0,41; 3,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,36</t>
+          <t>0,48; 4,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 6,28</t>
+          <t>1,37; 5,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,44</t>
+          <t>0,76; 4,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 5,86</t>
+          <t>1,01; 5,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,6</t>
+          <t>0,92; 3,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 5,29</t>
+          <t>2,13; 5,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,67</t>
+          <t>1,44; 4,56</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,82</t>
+          <t>0,98; 3,61</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 5,14</t>
+          <t>1,56; 5,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 6,36</t>
+          <t>1,72; 6,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,16</t>
+          <t>0,34; 3,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,48</t>
+          <t>1,7; 6,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,53</t>
+          <t>0,0; 2,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,67</t>
+          <t>1,03; 4,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,24</t>
+          <t>0,28; 2,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,63</t>
+          <t>0,4; 4,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,03</t>
+          <t>0,96; 3,12</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,54</t>
+          <t>1,78; 4,56</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,42</t>
+          <t>0,53; 2,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,15</t>
+          <t>1,31; 4,06</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,43; 4,68</t>
+          <t>2,53; 4,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,69</t>
+          <t>1,7; 3,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,08</t>
+          <t>1,38; 3,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,56</t>
+          <t>1,52; 3,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,72</t>
+          <t>1,05; 2,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,43</t>
+          <t>1,48; 3,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,92</t>
+          <t>1,24; 2,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,55</t>
+          <t>1,72; 4,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,03; 3,4</t>
+          <t>2,03; 3,39</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,2</t>
+          <t>1,88; 3,28</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,44; 2,76</t>
+          <t>1,46; 2,64</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,46</t>
+          <t>1,85; 3,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP7_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP7_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>2,76%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,7</t>
+          <t>0,94; 5,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0,99; 6,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>0,96; 6,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,71</t>
+          <t>0,93; 6,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>1,15; 5,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,77</t>
+          <t>0,4; 3,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,85</t>
+          <t>0,74; 5,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,2</t>
+          <t>0,96; 7,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,27</t>
+          <t>1,34; 4,52</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,9</t>
+          <t>0,88; 3,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,85</t>
+          <t>1,12; 4,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 14,5</t>
+          <t>1,32; 5,25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>3,73%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 5,61</t>
+          <t>0,96; 4,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,67</t>
+          <t>0,33; 3,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 7,09</t>
+          <t>0,86; 4,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 8,24</t>
+          <t>2,01; 17,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 6,29</t>
+          <t>3,56; 8,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 5,81</t>
+          <t>0,59; 3,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,77</t>
+          <t>0,67; 3,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,89</t>
+          <t>0,97; 3,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,75</t>
+          <t>2,67; 5,91</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,75</t>
+          <t>0,62; 2,36</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,84</t>
+          <t>1,08; 3,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,14</t>
+          <t>1,95; 8,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2,21%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3,79%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3,23%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>1,47%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,86%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,03%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,27%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,29%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>2,08%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>4,07%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>1,89%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 8,65</t>
+          <t>0,45; 3,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,3</t>
+          <t>1,43; 5,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,71</t>
+          <t>0,73; 4,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,01</t>
+          <t>0,75; 5,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,26</t>
+          <t>0,86; 4,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,9</t>
+          <t>1,86; 6,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,1</t>
+          <t>1,52; 6,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 9,0</t>
+          <t>0,43; 4,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,91</t>
+          <t>0,91; 3,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,62</t>
+          <t>2,16; 5,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,47</t>
+          <t>1,46; 4,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,97</t>
+          <t>0,81; 3,63</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>2,57%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,81</t>
+          <t>0,0; 2,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 6,49</t>
+          <t>1,05; 4,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 6,42</t>
+          <t>0,28; 2,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,93</t>
+          <t>0,46; 3,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,21</t>
+          <t>1,28; 5,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 5,75</t>
+          <t>1,77; 6,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,34</t>
+          <t>0,35; 3,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,94</t>
+          <t>1,74; 6,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,46</t>
+          <t>0,95; 3,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 5,37</t>
+          <t>1,86; 4,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,56</t>
+          <t>0,51; 2,37</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,61</t>
+          <t>1,28; 4,39</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,45%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,65%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
           <t>2,42%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,05%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,36%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>1,79%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>2,94%</t>
-        </is>
-      </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,79%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,37</t>
+          <t>1,01; 2,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 6,37</t>
+          <t>1,53; 3,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,21</t>
+          <t>1,21; 2,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 6,92</t>
+          <t>1,84; 6,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,76</t>
+          <t>2,57; 4,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,85</t>
+          <t>1,67; 3,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,96</t>
+          <t>1,29; 3,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,14</t>
+          <t>1,53; 3,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,12</t>
+          <t>2,04; 3,4</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,56</t>
+          <t>1,85; 3,16</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,51</t>
+          <t>1,49; 2,62</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,06</t>
+          <t>2,03; 4,29</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>3,53%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,5%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,09%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,38%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>1,71%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>2,34%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1,91%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2,7%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>2,65%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>2,42%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>2,0%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>2,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,53; 4,72</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,7; 3,59</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 3,21</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>1,52; 3,62</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 2,59</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 3,31</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>1,24; 2,87</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 4,44</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>2,03; 3,39</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>1,88; 3,28</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>1,46; 2,64</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>1,85; 3,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
